--- a/petro-web-scraping/petronasfinalfiles/mesraoutlets-up-to-segarmesra.xlsx
+++ b/petro-web-scraping/petronasfinalfiles/mesraoutlets-up-to-segarmesra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,12 +435,9 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -450,15 +447,10 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TAMAN MALURI</t>
+          <t>Lot Pt 128, Jalan Kg Pandan, Taman Maluri, 54200 Ampang, Kuala Lumpur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t>Lot Pt 128, Jalan Kg Pandan, Taman Maluri, 54200 Ampang, Kuala Lumpur</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -470,15 +462,10 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>KELANA JAYA</t>
+          <t>Lot 2, Jalan Ss 3/39, Kelana Jaya, 47300 Petaling Jaya, Selangor</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
-        <is>
-          <t>Lot 2, Jalan Ss 3/39, Kelana Jaya, 47300 Petaling Jaya, Selangor</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -490,15 +477,10 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DESA MENTARI</t>
+          <t>Lot Pt 621 Hs(D) 173396 Desa Mentari, Jalan Kelang Lama, Mukim Petaling, Selangor, 46150 Petaling Jaya, Selangor</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
-        <is>
-          <t>Lot Pt 621 Hs(D) 173396 Desa Mentari, Jalan Kelang Lama, Mukim Petaling, Selangor, 46150 Petaling Jaya, Selangor</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -510,15 +492,10 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BANDAR KINRARA 2</t>
+          <t>Lot 4054, Phase 5A, Jalan Kinrara 6, Bandar Kinrara, 47100 Puchong, Selangor</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
-        <is>
-          <t>Lot 4054, Phase 5A, Jalan Kinrara 6, Bandar Kinrara, 47100 Puchong, Selangor</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -530,15 +507,10 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SUNWAY BATU CAVES</t>
+          <t>Lot 10903, 10904 @ 4756 Mukim Batu, 68100 Gombak, Selangor</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
-        <is>
-          <t>Lot 10903, 10904 @ 4756 Mukim Batu, 68100 Gombak, Selangor</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -550,15 +522,10 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PERSIARAN MAHKOTA CHERAS</t>
+          <t>Lot 368 (Plot B), Bt. 10 1/2, Jln Cheras, Mukim Cheras, 43200 Cheras, Selangor</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
-        <is>
-          <t>Lot 368 (Plot B), Bt. 10 1/2, Jln Cheras, Mukim Cheras, 43200 Cheras, Selangor</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -570,15 +537,10 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CHERAS PERDANA</t>
+          <t>Lot 21854 (Pt 16292) Taman Cheras Perdana, 43200 Cheras, Selangor</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
-        <is>
-          <t>Lot 21854 (Pt 16292) Taman Cheras Perdana, 43200 Cheras, Selangor</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -590,15 +552,10 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>JALAN SUNGAI TUA, GOMBAK</t>
+          <t>Lot Pt 34825, Hs (D) 263792 &amp; 93, Jalan Sungai Tua, Mukim Batu, 68100 Gombak, Selangor</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
-        <is>
-          <t>Lot Pt 34825, Hs (D) 263792 &amp; 93, Jalan Sungai Tua, Mukim Batu, 68100 Gombak, Selangor</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -610,15 +567,10 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TAMAN SRI GOMBAK</t>
+          <t>Lot Pt 8266 Hsd 193816, Jalan Makmur, Taman Sri Gombak, 68100 Batu Caves, Selangor</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
-        <is>
-          <t>Lot Pt 8266 Hsd 193816, Jalan Makmur, Taman Sri Gombak, 68100 Batu Caves, Selangor</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -630,15 +582,10 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BDR SERI KEMBANGAN</t>
+          <t>Lot 1833 Seri Kembangan, Mk Petaling, Serdang, Selangor, 43300 Sri Kembangan, Selangor</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
-        <is>
-          <t>Lot 1833 Seri Kembangan, Mk Petaling, Serdang, Selangor, 43300 Sri Kembangan, Selangor</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -650,15 +597,10 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>USJ 4</t>
+          <t>Lot 3870, Jln Usj 4/1, Subang Uep, 47600 Subang Jaya, Selangor</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
-        <is>
-          <t>Lot 3870, Jln Usj 4/1, Subang Uep, 47600 Subang Jaya, Selangor</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -670,15 +612,10 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SUBANG BESTARI</t>
+          <t>Lot 34419 Hs(M) 10268 &amp; 34420, Hs(M) 10269 Subang Bestari, 40150 Sungai Buloh, Selangor</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
-        <is>
-          <t>Lot 34419 Hs(M) 10268 &amp; 34420, Hs(M) 10269 Subang Bestari, 40150 Sungai Buloh, Selangor</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -690,15 +627,10 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>USJ 20</t>
+          <t>Lot 49946 Usj 20 Mukim Damansara Selangor, 47630 Subang Jaya, Selangor</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
-        <is>
-          <t>Lot 49946 Usj 20 Mukim Damansara Selangor, 47630 Subang Jaya, Selangor</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -710,15 +642,10 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SAUJANA PUCHONG</t>
+          <t>Lot Pt 16928 Hsd 61959 Taman Saujana Puchong, 47100 Puchong, Selangor</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
-        <is>
-          <t>Lot Pt 16928 Hsd 61959 Taman Saujana Puchong, 47100 Puchong, Selangor</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -730,15 +657,10 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PUTRA HEIGHT</t>
+          <t>Lot 3612 Hs (D) 108483, Persiaran Harmoni, Putra Height, Subang Jaya, 47400 Petaling Jaya, Selangor</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
-        <is>
-          <t>Lot 3612 Hs (D) 108483, Persiaran Harmoni, Putra Height, Subang Jaya, 47400 Petaling Jaya, Selangor</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -750,15 +672,10 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BUKIT RAHMAN PUTRA</t>
+          <t>Lot Pt 33428 Grn 41170, Pekan Baru Sungai Buluh, Jalan Bukit Rahman Putra, 47000 Petaling, Selangor</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
-        <is>
-          <t>Lot Pt 33428 Grn 41170, Pekan Baru Sungai Buluh, Jalan Bukit Rahman Putra, 47000 Petaling, Selangor</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -770,15 +687,10 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TAMAN MERANTI JAYA</t>
+          <t>Lot 13985, Taman Meranti Jaya, 47100 Puchong, Selangor</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
-        <is>
-          <t>Lot 13985, Taman Meranti Jaya, 47100 Puchong, Selangor</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -790,15 +702,10 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PRIMA SAUJANA 2</t>
+          <t>Lot 17892 Sublot A, Taman Prima Saujana, 43000 Kajang, Selangor</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
-        <is>
-          <t>Lot 17892 Sublot A, Taman Prima Saujana, 43000 Kajang, Selangor</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -810,17 +717,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>KAMPUNG MELAYU SUBANG</t>
+          <t>Lot 5890 Jalan Lobak, Seremban, 70100 Seremban, Negeri Sembilan</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Lot Pt 38368 Jln Sungai Buloh, Kg Melayu Subang, Sungai Buloh, 47000 Shah Alam, Selangor</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Kundang, Rawang, Selangor</t>
+          <t>Seremban, Negeri Sembilan</t>
         </is>
       </c>
     </row>
@@ -830,17 +732,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SG JATI ARAH KELANG</t>
+          <t>Lot C, Part Of Lot Pt 6283 Hs(D) 109226, Bandar Seremban 2, Mukim Rasah, 70300 Seremban, Negeri Sembilan</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Lot 2555 Gm 944 &amp; Lot 2556 Gm 1649, Mukim Of Klang, 41000 Klang, Selangor</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Kundang, Rawang, Selangor</t>
+          <t>Seremban, Negeri Sembilan</t>
         </is>
       </c>
     </row>
@@ -850,17 +747,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TAMAN ALAM MEGA</t>
+          <t>Lot 1846 Pn 648 (Lot.Pt 4087 Hsd 154332) Mk.Ampangan, Matahari Height, Pst.Bdr Senawang, 70450 Seremban, Negeri Sembilan</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Lot Pt 5052, Jalan Tanah Liat, Seksyen 28, Taman Alam Megah, 40400 Shah Alam, Selangor</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Kundang, Rawang, Selangor</t>
+          <t>Seremban, Negeri Sembilan</t>
         </is>
       </c>
     </row>
@@ -870,17 +762,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BUKIT TINGGI 2</t>
+          <t>Pt 12695, Persiaran Sendayan Baru, Bandar Sri Sendayan, 71950 Negeri Sembilan, Negeri Sembilan</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Lot 1 Bandar Bukit Tinggi Klang Selangor, 41200 Klang, Selangor</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Kundang, Rawang, Selangor</t>
+          <t>Seremban, Negeri Sembilan</t>
         </is>
       </c>
     </row>
@@ -890,17 +777,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TAMAN KOTA PENDAMAR</t>
+          <t>Lot Pt 28768, Hs(M) 21664, Bandar Baru Bangi Industrial Zon 1, Sungai Ramal Dalam, 43000 Kajang, Selangor</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Lot 137939, Lebuhraya Pelabuhan Barat/KS05, Taman Kota Pendamar, 42000 Klang, Selangor</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Kundang, Rawang, Selangor</t>
+          <t>Seremban, Negeri Sembilan</t>
         </is>
       </c>
     </row>
@@ -910,17 +792,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PANDAMAR INDAH 2</t>
+          <t>Lot 26796 Pelangi Semenyih, Mukim Semenyih, 43500 Hulu Langat, Selangor</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>H.S. (D) 26752 Pt 26387 Tmn Pandamar Indah Ii Mukim Klang, 42000 Klang, Selangor</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Kundang, Rawang, Selangor</t>
+          <t>Seremban, Negeri Sembilan</t>
         </is>
       </c>
     </row>
@@ -930,17 +807,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>JLN TAN SWEE HOE</t>
+          <t>Lot 7 &amp; 9 Jalan 4/1 Seksyen 4, Bandar Baru Bangi, 43650 Bangi, Selangor</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Lot 21209, Jalan Tan Swee Hoe, Mukim Simpang Kanan, 83000 Batu Pahat, Johor</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Batu Pahat, Johor</t>
+          <t>Seremban, Negeri Sembilan</t>
         </is>
       </c>
     </row>
@@ -950,57 +822,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PARIT BINTANG</t>
+          <t>Lot Pt 836, Precint 9, 62250 , Putrajaya</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Lot Ptd 2478, Mukim Peserai, Jalan Batu Pahat-Muar, 83000 Batu Pahat, Johor</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Batu Pahat, Johor</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>JLN LORONG PANDAN</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Lot Pt 189, H.S.(D) 66194, Jalan Lorong Pandan, Pekan Klebang, Seksyen 4, 75450 , Melaka</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Bukit Baru, Malacca, Melaka</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>BEMBAN</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Lot Pt 1620, Pekan Bemban, Mukim Air Panas, 77200 Jasin, Melaka</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Bukit Baru, Malacca, Melaka</t>
+          <t>Seremban, Negeri Sembilan</t>
         </is>
       </c>
     </row>

--- a/petro-web-scraping/petronasfinalfiles/mesraoutlets-up-to-segarmesra.xlsx
+++ b/petro-web-scraping/petronasfinalfiles/mesraoutlets-up-to-segarmesra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,16 +434,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>outlet_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>outlet_address</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>locator_town</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TAMAN MALURI</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -457,8 +468,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KELANA JAYA</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -472,8 +485,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DESA MENTARI</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -487,8 +502,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BANDAR KINRARA 2</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -502,8 +519,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SUNWAY BATU CAVES</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -517,8 +536,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PERSIARAN MAHKOTA CHERAS</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -532,8 +553,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CHERAS PERDANA</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -547,8 +570,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>JALAN SUNGAI TUA, GOMBAK</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -562,8 +587,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TAMAN SRI GOMBAK</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -577,8 +604,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BDR SERI KEMBANGAN</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -592,8 +621,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>USJ 4</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -607,8 +638,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SUBANG BESTARI</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -622,8 +655,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>USJ 20</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -637,8 +672,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SAUJANA PUCHONG</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -652,8 +689,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PUTRA HEIGHT</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -667,8 +706,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BUKIT RAHMAN PUTRA</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -682,8 +723,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TAMAN MERANTI JAYA</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -697,8 +740,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PRIMA SAUJANA 2</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -712,120 +757,442 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>KOTA MASAI</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>Ptd 129028 Kota Masai, 81750 Mukim Plentong, Johor</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Pasir Gudang, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TMN CAHAYA MASAI</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>New Lot Ptd 160926 Hs (D) 338709, Taman Cahaya Masai, Mukim Plentong, 81750 Johor Bahru, Johor</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Pasir Gudang, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TAMAN DESA JAYA</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Lot 69921, Taman Desa Jaya, 81100 Johor Bahru, Johor</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Pasir Gudang, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TMN PUTERI WANGSA</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Lot Ptd 26080, Taman Putri Wangsa, Mukim Tebrau, 81800 Johor Bahru, Johor</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Pasir Gudang, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>JALAN LANGKASUKA</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Lot Ptb 20457, Hs(D) 303968, Jalan Langkasuka, Mukim Bandar Johor Bharu, Johor, 81200 Mukim Bandar, Johor</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Pasir Gudang, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>BANDAR BARU UDA 2</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Lot Ptb 16964, Jalan Padi Malinja 3, Bandar Baru Uda, 81200 Johor Bahru, Johor</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Pasir Gudang, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>BANDAR BARU UDA 1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Lot 12105, Bandar Baru Uda, Batu 4 1/2, Jln Skudai, 81200 Johor Bahru, Johor</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Pasir Gudang, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>KEMPAS BARU 2</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Lot 42965, Mukim Tebrau, Jalan Kempas Baru, 81200 Johor Bahru, Johor</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Pasir Gudang, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TAMAN SRI SAUJANA</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Lot Ptd 12345, Bandar Sri Saujana, Mukim Kota Tinggi, 81900 Kota Tinggi, Johor</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Pasir Gudang, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>TAMAN BUKIT KEMPAS</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Lot 9492, No.2, Jalan Bukit Kempas 1/5, Taman Bukit Kempas, 81200 Johor Bahru, Johor</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Pasir Gudang, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>JLN KEMPAS LAMA</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Lot Ptd 64876 &amp; 64877 Hs(D) 216844/45, Jalan Kempas Lama, Mkm Tebrau, 81100 Johor Bharu, Johor</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Pasir Gudang, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>TAMAN TAMPOI UTAMA</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Lot 60266, Taman Tampoi Utama, 81200 Johor Bahru, Johor</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Pasir Gudang, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>KM 13 JALAN SKUDAI</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Lot 1283, Gm 679, Mukim Pulai, Skudai Highway, Johor Bharu, Johor, 81000 Pulai, Johor</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Pasir Gudang, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>TAMAN PERLING</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Lot 31222, Hs (D) 114738, Lot 50844, Taman Perling, Mukim Pulai, Johor Bharu, 85000 Mukim Pulai, Johor</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Pasir Gudang, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MUTIARA RINI</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Lot Ptd 81817, Mutiara Rini, 81300 Skudai, Johor</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Pasir Gudang, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PULAI PERDANA</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Ptd 111148, Tmn Sri Pulai Perdana, Johor Bharu, 81110 Johor Bharu, Johor</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Pasir Gudang, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>TAMAN AMAN</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Hs(M) 383 Lot Pt 4611 &amp; Hs(M) 1603, Lot Mlo 5520 Mukim Senai-Kulai, Skudai-Senai Highway, 81000 Johor Bahru, Johor</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Pasir Gudang, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>BANDAR PUTRA (PLOT 4)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Plot 4, Ptd 74299, Mk 3, Bandar Puta, 81000 Johor Bharu, Johor</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Pasir Gudang, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>JLN LOBAK</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>Lot 5890 Jalan Lobak, Seremban, 70100 Seremban, Negeri Sembilan</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Seremban, Negeri Sembilan</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>S2 CITY PARK</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>Lot C, Part Of Lot Pt 6283 Hs(D) 109226, Bandar Seremban 2, Mukim Rasah, 70300 Seremban, Negeri Sembilan</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Seremban, Negeri Sembilan</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MATAHARI HEIGHTS</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>Lot 1846 Pn 648 (Lot.Pt 4087 Hsd 154332) Mk.Ampangan, Matahari Height, Pst.Bdr Senawang, 70450 Seremban, Negeri Sembilan</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Seremban, Negeri Sembilan</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>BANDAR BARU SENDAYAN</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>Pt 12695, Persiaran Sendayan Baru, Bandar Sri Sendayan, 71950 Negeri Sembilan, Negeri Sembilan</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Seremban, Negeri Sembilan</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>PERSIARAN JAYA</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>Lot Pt 28768, Hs(M) 21664, Bandar Baru Bangi Industrial Zon 1, Sungai Ramal Dalam, 43000 Kajang, Selangor</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Seremban, Negeri Sembilan</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>TMN PELANGI SEMENYIH</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>Lot 26796 Pelangi Semenyih, Mukim Semenyih, 43500 Hulu Langat, Selangor</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Seremban, Negeri Sembilan</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>UNIKEB 2</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>Lot 7 &amp; 9 Jalan 4/1 Seksyen 4, Bandar Baru Bangi, 43650 Bangi, Selangor</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Seremban, Negeri Sembilan</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>PUTRAJAYA PRECINT 9D</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>Lot Pt 836, Precint 9, 62250 , Putrajaya</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Seremban, Negeri Sembilan</t>
         </is>

--- a/petro-web-scraping/petronasfinalfiles/mesraoutlets-up-to-segarmesra.xlsx
+++ b/petro-web-scraping/petronasfinalfiles/mesraoutlets-up-to-segarmesra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,442 +759,833 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>KOTA MASAI</t>
+          <t>PUTRAJAYA PRECINT 9D</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ptd 129028 Kota Masai, 81750 Mukim Plentong, Johor</t>
+          <t>Lot Pt 836, Precint 9, 62250 , Putrajaya</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Pasir Gudang, Johor</t>
+          <t>Putrajaya</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TMN CAHAYA MASAI</t>
+          <t>UNIKEB 2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>New Lot Ptd 160926 Hs (D) 338709, Taman Cahaya Masai, Mukim Plentong, 81750 Johor Bahru, Johor</t>
+          <t>Lot 7 &amp; 9 Jalan 4/1 Seksyen 4, Bandar Baru Bangi, 43650 Bangi, Selangor</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Pasir Gudang, Johor</t>
+          <t>Putrajaya</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TAMAN DESA JAYA</t>
+          <t>BDR SAUJANA PUTRA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Lot 69921, Taman Desa Jaya, 81100 Johor Bahru, Johor</t>
+          <t>Lot 26103, Jalan Sp 4/31, Bandar Saujana Putra, 42610 Kuala Langat, Selangor</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Pasir Gudang, Johor</t>
+          <t>Putrajaya</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TMN PUTERI WANGSA</t>
+          <t>PERSIARAN JAYA</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Lot Ptd 26080, Taman Putri Wangsa, Mukim Tebrau, 81800 Johor Bahru, Johor</t>
+          <t>Lot Pt 28768, Hs(M) 21664, Bandar Baru Bangi Industrial Zon 1, Sungai Ramal Dalam, 43000 Kajang, Selangor</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Pasir Gudang, Johor</t>
+          <t>Putrajaya</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>JALAN LANGKASUKA</t>
+          <t>TMN PELANGI SEMENYIH</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Lot Ptb 20457, Hs(D) 303968, Jalan Langkasuka, Mukim Bandar Johor Bharu, Johor, 81200 Mukim Bandar, Johor</t>
+          <t>Lot 26796 Pelangi Semenyih, Mukim Semenyih, 43500 Hulu Langat, Selangor</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Pasir Gudang, Johor</t>
+          <t>Putrajaya</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BANDAR BARU UDA 2</t>
+          <t>TAMAN ALAM MEGA</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Lot Ptb 16964, Jalan Padi Malinja 3, Bandar Baru Uda, 81200 Johor Bahru, Johor</t>
+          <t>Lot Pt 5052, Jalan Tanah Liat, Seksyen 28, Taman Alam Megah, 40400 Shah Alam, Selangor</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Pasir Gudang, Johor</t>
+          <t>Putrajaya</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BANDAR BARU UDA 1</t>
+          <t>SG JATI ARAH KELANG</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Lot 12105, Bandar Baru Uda, Batu 4 1/2, Jln Skudai, 81200 Johor Bahru, Johor</t>
+          <t>Lot 2555 Gm 944 &amp; Lot 2556 Gm 1649, Mukim Of Klang, 41000 Klang, Selangor</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Pasir Gudang, Johor</t>
+          <t>Shah Alam, Selangor</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>KEMPAS BARU 2</t>
+          <t>KAMPUNG MELAYU SUBANG</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Lot 42965, Mukim Tebrau, Jalan Kempas Baru, 81200 Johor Bahru, Johor</t>
+          <t>Lot Pt 38368 Jln Sungai Buloh, Kg Melayu Subang, Sungai Buloh, 47000 Shah Alam, Selangor</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Pasir Gudang, Johor</t>
+          <t>Shah Alam, Selangor</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TAMAN SRI SAUJANA</t>
+          <t>BUKIT TINGGI 2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Lot Ptd 12345, Bandar Sri Saujana, Mukim Kota Tinggi, 81900 Kota Tinggi, Johor</t>
+          <t>Lot 1 Bandar Bukit Tinggi Klang Selangor, 41200 Klang, Selangor</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Pasir Gudang, Johor</t>
+          <t>Shah Alam, Selangor</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TAMAN BUKIT KEMPAS</t>
+          <t>PANDAMAR INDAH 2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Lot 9492, No.2, Jalan Bukit Kempas 1/5, Taman Bukit Kempas, 81200 Johor Bahru, Johor</t>
+          <t>H.S. (D) 26752 Pt 26387 Tmn Pandamar Indah Ii Mukim Klang, 42000 Klang, Selangor</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Pasir Gudang, Johor</t>
+          <t>Shah Alam, Selangor</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>JLN KEMPAS LAMA</t>
+          <t>JLN KLANG - BANTING</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Lot Ptd 64876 &amp; 64877 Hs(D) 216844/45, Jalan Kempas Lama, Mkm Tebrau, 81100 Johor Bharu, Johor</t>
+          <t>Lot Pt 10116, Hs(M) 10766, Mukim Telok Panglima Garang, 42500 Kuala Langat, Selangor</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Pasir Gudang, Johor</t>
+          <t>Shah Alam, Selangor</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TAMAN TAMPOI UTAMA</t>
+          <t>TAMAN KOTA PENDAMAR</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Lot 60266, Taman Tampoi Utama, 81200 Johor Bahru, Johor</t>
+          <t>Lot 137939, Lebuhraya Pelabuhan Barat/KS05, Taman Kota Pendamar, 42000 Klang, Selangor</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Pasir Gudang, Johor</t>
+          <t>Shah Alam, Selangor</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>KM 13 JALAN SKUDAI</t>
+          <t>JLN LOBAK</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Lot 1283, Gm 679, Mukim Pulai, Skudai Highway, Johor Bharu, Johor, 81000 Pulai, Johor</t>
+          <t>Lot 5890 Jalan Lobak, Seremban, 70100 Seremban, Negeri Sembilan</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Pasir Gudang, Johor</t>
+          <t>Semenyih, Selangor</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TAMAN PERLING</t>
+          <t>S2 CITY PARK</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Lot 31222, Hs (D) 114738, Lot 50844, Taman Perling, Mukim Pulai, Johor Bharu, 85000 Mukim Pulai, Johor</t>
+          <t>Lot C, Part Of Lot Pt 6283 Hs(D) 109226, Bandar Seremban 2, Mukim Rasah, 70300 Seremban, Negeri Sembilan</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Pasir Gudang, Johor</t>
+          <t>Semenyih, Selangor</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MUTIARA RINI</t>
+          <t>BANDAR BARU SENDAYAN</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Lot Ptd 81817, Mutiara Rini, 81300 Skudai, Johor</t>
+          <t>Pt 12695, Persiaran Sendayan Baru, Bandar Sri Sendayan, 71950 Negeri Sembilan, Negeri Sembilan</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Pasir Gudang, Johor</t>
+          <t>Bandar Baru Salak Tinggi, Sepang, Selangor</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PULAI PERDANA</t>
+          <t>MATAHARI HEIGHTS</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ptd 111148, Tmn Sri Pulai Perdana, Johor Bharu, 81110 Johor Bharu, Johor</t>
+          <t>Lot 1846 Pn 648 (Lot.Pt 4087 Hsd 154332) Mk.Ampangan, Matahari Height, Pst.Bdr Senawang, 70450 Seremban, Negeri Sembilan</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Pasir Gudang, Johor</t>
+          <t>Beranang, Selangor</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TAMAN AMAN</t>
+          <t>JALAN LANGKASUKA</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Hs(M) 383 Lot Pt 4611 &amp; Hs(M) 1603, Lot Mlo 5520 Mukim Senai-Kulai, Skudai-Senai Highway, 81000 Johor Bahru, Johor</t>
+          <t>Lot Ptb 20457, Hs(D) 303968, Jalan Langkasuka, Mukim Bandar Johor Bharu, Johor, 81200 Mukim Bandar, Johor</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Pasir Gudang, Johor</t>
+          <t>Johor Bahru, Johor</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BANDAR PUTRA (PLOT 4)</t>
+          <t>BANDAR BARU UDA 2</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Plot 4, Ptd 74299, Mk 3, Bandar Puta, 81000 Johor Bharu, Johor</t>
+          <t>Lot Ptb 16964, Jalan Padi Malinja 3, Bandar Baru Uda, 81200 Johor Bahru, Johor</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Pasir Gudang, Johor</t>
+          <t>Johor Bahru, Johor</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>JLN LOBAK</t>
+          <t>BANDAR BARU UDA 1</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Lot 5890 Jalan Lobak, Seremban, 70100 Seremban, Negeri Sembilan</t>
+          <t>Lot 12105, Bandar Baru Uda, Batu 4 1/2, Jln Skudai, 81200 Johor Bahru, Johor</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Seremban, Negeri Sembilan</t>
+          <t>Johor Bahru, Johor</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>S2 CITY PARK</t>
+          <t>KEMPAS BARU 2</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Lot C, Part Of Lot Pt 6283 Hs(D) 109226, Bandar Seremban 2, Mukim Rasah, 70300 Seremban, Negeri Sembilan</t>
+          <t>Lot 42965, Mukim Tebrau, Jalan Kempas Baru, 81200 Johor Bahru, Johor</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Seremban, Negeri Sembilan</t>
+          <t>Johor Bahru, Johor</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MATAHARI HEIGHTS</t>
+          <t>TAMAN TAMPOI UTAMA</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Lot 1846 Pn 648 (Lot.Pt 4087 Hsd 154332) Mk.Ampangan, Matahari Height, Pst.Bdr Senawang, 70450 Seremban, Negeri Sembilan</t>
+          <t>Lot 60266, Taman Tampoi Utama, 81200 Johor Bahru, Johor</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Seremban, Negeri Sembilan</t>
+          <t>Johor Bahru, Johor</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BANDAR BARU SENDAYAN</t>
+          <t>TAMAN BUKIT KEMPAS</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Pt 12695, Persiaran Sendayan Baru, Bandar Sri Sendayan, 71950 Negeri Sembilan, Negeri Sembilan</t>
+          <t>Lot 9492, No.2, Jalan Bukit Kempas 1/5, Taman Bukit Kempas, 81200 Johor Bahru, Johor</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Seremban, Negeri Sembilan</t>
+          <t>Johor Bahru, Johor</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PERSIARAN JAYA</t>
+          <t>TAMAN DESA JAYA</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Lot Pt 28768, Hs(M) 21664, Bandar Baru Bangi Industrial Zon 1, Sungai Ramal Dalam, 43000 Kajang, Selangor</t>
+          <t>Lot 69921, Taman Desa Jaya, 81100 Johor Bahru, Johor</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Seremban, Negeri Sembilan</t>
+          <t>Johor Bahru, Johor</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TMN PELANGI SEMENYIH</t>
+          <t>JLN KEMPAS LAMA</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Lot 26796 Pelangi Semenyih, Mukim Semenyih, 43500 Hulu Langat, Selangor</t>
+          <t>Lot Ptd 64876 &amp; 64877 Hs(D) 216844/45, Jalan Kempas Lama, Mkm Tebrau, 81100 Johor Bharu, Johor</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Seremban, Negeri Sembilan</t>
+          <t>Johor Bahru, Johor</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>UNIKEB 2</t>
+          <t>TAMAN PERLING</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Lot 7 &amp; 9 Jalan 4/1 Seksyen 4, Bandar Baru Bangi, 43650 Bangi, Selangor</t>
+          <t>Lot 31222, Hs (D) 114738, Lot 50844, Taman Perling, Mukim Pulai, Johor Bharu, 85000 Mukim Pulai, Johor</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Seremban, Negeri Sembilan</t>
+          <t>Johor Bahru, Johor</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PUTRAJAYA PRECINT 9D</t>
+          <t>KM 13 JALAN SKUDAI</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Lot Pt 836, Precint 9, 62250 , Putrajaya</t>
+          <t>Lot 1283, Gm 679, Mukim Pulai, Skudai Highway, Johor Bharu, Johor, 81000 Pulai, Johor</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Seremban, Negeri Sembilan</t>
+          <t>Johor Bahru, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>TMN PUTERI WANGSA</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Lot Ptd 26080, Taman Putri Wangsa, Mukim Tebrau, 81800 Johor Bahru, Johor</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Johor Bahru, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MUTIARA RINI</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Lot Ptd 81817, Mutiara Rini, 81300 Skudai, Johor</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Johor Bahru, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>PULAI PERDANA</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Ptd 111148, Tmn Sri Pulai Perdana, Johor Bharu, 81110 Johor Bharu, Johor</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Johor Bahru, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>TAMAN AMAN</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Hs(M) 383 Lot Pt 4611 &amp; Hs(M) 1603, Lot Mlo 5520 Mukim Senai-Kulai, Skudai-Senai Highway, 81000 Johor Bahru, Johor</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Johor Bahru, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>TMN CAHAYA MASAI</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>New Lot Ptd 160926 Hs (D) 338709, Taman Cahaya Masai, Mukim Plentong, 81750 Johor Bahru, Johor</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Johor Bahru, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>KOTA MASAI</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Ptd 129028 Kota Masai, 81750 Mukim Plentong, Johor</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Johor Bahru, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>TAMAN SRI SAUJANA</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Lot Ptd 12345, Bandar Sri Saujana, Mukim Kota Tinggi, 81900 Kota Tinggi, Johor</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Johor Bahru, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BANDAR PUTRA (PLOT 4)</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Plot 4, Ptd 74299, Mk 3, Bandar Puta, 81000 Johor Bharu, Johor</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Johor Bahru, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>BANDAR PUTRA 3</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Plot 3, Ptd 61674 Bandar Putra, Mukim Senai-Kulai, 81400 Johor Bahru, Johor</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Tebrau, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>JLN KULAI-KOTA TINGGI</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Lot Ptd 94525, Km 1, Jalan Kulai-Kota Tinggi, 81000 Kulaijaya, Johor</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Bukit Indah, Johor Bahru, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>JLN TAN SWEE HOE</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Lot 21209, Jalan Tan Swee Hoe, Mukim Simpang Kanan, 83000 Batu Pahat, Johor</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Batu Pahat, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>PARIT BINTANG</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Lot Ptd 2478, Mukim Peserai, Jalan Batu Pahat-Muar, 83000 Batu Pahat, Johor</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Batu Pahat, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>BEMBAN</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Lot Pt 1620, Pekan Bemban, Mukim Air Panas, 77200 Jasin, Melaka</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Muar, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>JLN LORONG PANDAN</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Lot Pt 189, H.S.(D) 66194, Jalan Lorong Pandan, Pekan Klebang, Seksyen 4, 75450 , Melaka</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Motor Sewa Melaka, Jalan Mh 29, Taman Muzaffar Heights, Malacca</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ASTANA</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Part Of Lot 2146 Section 65, Ktld Jalan Istana, Petrajaya, 93050 Kuching, Sarawak</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Kuching, Sarawak</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>MATANG JAYA</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Lot 6282, Jalan Matang, 93050 Kuching, Sarawak</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Kuching, Sarawak</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>SAMARAHAN EXPRESSWAY</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Lot 1537 Block 26, Muara Tuang Land District, 94300 Kota Samarahan, Sarawak</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Kuching, Sarawak</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>BATU 13 KUCHING - SERIAN</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Lot 1143 Block 1, Mile 13, Kuching, 93250 Kuching, Sarawak</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Kuching, Sarawak</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>PUJUT 8</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Lot 318 Blok 3 Jln Pujut Lutong, 98000 Miri, Sarawak</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Miri, Sarawak</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>JALAN BULAN SABIT</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Lot 1050 Block 7 Mcld Jalan Bulan Sabit, 98000 Miri, Sarawak</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Miri, Sarawak</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>LUTONG</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Lot 23, Block 1, Miri Concession Land District Lutong Bazaar, 98000 Miri, Sarawak</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Miri, Sarawak</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>LANANG 2</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>No 120 Lot 358, Block 9, Lanang Road, Sibu, Sarawak, 96000 Sibu, Sarawak</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Sibu, Sarawak</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>LANANG BARAT</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Lot 4152, Block 19, Seduan Land Distict, Jalan Lanang Barat, 96000 Sibu, Sarawak</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Sibu, Sarawak</t>
         </is>
       </c>
     </row>
